--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cd47-Sirpa.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="H2">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="I2">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="J2">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.922032</v>
+        <v>4.208541333333334</v>
       </c>
       <c r="N2">
-        <v>5.766096</v>
+        <v>12.625624</v>
       </c>
       <c r="O2">
-        <v>0.002297261960450741</v>
+        <v>0.005552616098231802</v>
       </c>
       <c r="P2">
-        <v>0.002297261960450741</v>
+        <v>0.005552616098231804</v>
       </c>
       <c r="Q2">
-        <v>68.10017056423466</v>
+        <v>188.8658101910018</v>
       </c>
       <c r="R2">
-        <v>612.901535078112</v>
+        <v>1699.792291719016</v>
       </c>
       <c r="S2">
-        <v>0.0001939041703676105</v>
+        <v>0.000667361018483259</v>
       </c>
       <c r="T2">
-        <v>0.0001939041703676105</v>
+        <v>0.0006673610184832592</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="H3">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="I3">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="J3">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>77.911097</v>
       </c>
       <c r="O3">
-        <v>0.03104044737289977</v>
+        <v>0.0342644776553697</v>
       </c>
       <c r="P3">
-        <v>0.03104044737289976</v>
+        <v>0.0342644776553697</v>
       </c>
       <c r="Q3">
-        <v>920.1648731735703</v>
+        <v>1165.466551021536</v>
       </c>
       <c r="R3">
-        <v>8281.483858562133</v>
+        <v>10489.19895919382</v>
       </c>
       <c r="S3">
-        <v>0.002620019962590881</v>
+        <v>0.004118198755567881</v>
       </c>
       <c r="T3">
-        <v>0.00262001996259088</v>
+        <v>0.004118198755567882</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="H4">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="I4">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="J4">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>251.8670403333333</v>
+        <v>226.733363</v>
       </c>
       <c r="N4">
-        <v>755.601121</v>
+        <v>680.200089</v>
       </c>
       <c r="O4">
-        <v>0.3010379488213928</v>
+        <v>0.299144815670109</v>
       </c>
       <c r="P4">
-        <v>0.3010379488213927</v>
+        <v>0.299144815670109</v>
       </c>
       <c r="Q4">
-        <v>8923.986908755407</v>
+        <v>10175.06468598911</v>
       </c>
       <c r="R4">
-        <v>80315.88217879867</v>
+        <v>91575.58217390196</v>
       </c>
       <c r="S4">
-        <v>0.02540960270108952</v>
+        <v>0.03595378922795764</v>
       </c>
       <c r="T4">
-        <v>0.02540960270108952</v>
+        <v>0.03595378922795764</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="H5">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="I5">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="J5">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.535289333333334</v>
+        <v>3.547768333333333</v>
       </c>
       <c r="N5">
-        <v>16.605868</v>
+        <v>10.643305</v>
       </c>
       <c r="O5">
-        <v>0.006615919831488451</v>
+        <v>0.004680813136949986</v>
       </c>
       <c r="P5">
-        <v>0.006615919831488449</v>
+        <v>0.004680813136949986</v>
       </c>
       <c r="Q5">
-        <v>196.1227220578996</v>
+        <v>159.2124414551661</v>
       </c>
       <c r="R5">
-        <v>1765.104498521096</v>
+        <v>1432.911973096495</v>
       </c>
       <c r="S5">
-        <v>0.0005584275838928197</v>
+        <v>0.0005625802625539904</v>
       </c>
       <c r="T5">
-        <v>0.0005584275838928195</v>
+        <v>0.0005625802625539904</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="H6">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="I6">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="J6">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>244.6034496666666</v>
+        <v>255.9368486666667</v>
       </c>
       <c r="N6">
-        <v>733.810349</v>
+        <v>767.810546</v>
       </c>
       <c r="O6">
-        <v>0.2923563188928492</v>
+        <v>0.3376749694202639</v>
       </c>
       <c r="P6">
-        <v>0.2923563188928492</v>
+        <v>0.3376749694202639</v>
       </c>
       <c r="Q6">
-        <v>8666.628153381518</v>
+        <v>11485.62327244067</v>
       </c>
       <c r="R6">
-        <v>77999.65338043368</v>
+        <v>103370.609451966</v>
       </c>
       <c r="S6">
-        <v>0.02467681546231831</v>
+        <v>0.04058467351639389</v>
       </c>
       <c r="T6">
-        <v>0.0246768154623183</v>
+        <v>0.0405846735163939</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>35.43134066666666</v>
+        <v>44.87678633333334</v>
       </c>
       <c r="H7">
-        <v>106.294022</v>
+        <v>134.630359</v>
       </c>
       <c r="I7">
-        <v>0.08440664308460712</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="J7">
-        <v>0.0844066430846071</v>
+        <v>0.1201885753808509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>306.7639160000001</v>
+        <v>241.54158</v>
       </c>
       <c r="N7">
-        <v>920.2917480000001</v>
+        <v>724.62474</v>
       </c>
       <c r="O7">
-        <v>0.3666521031209192</v>
+        <v>0.3186823080190756</v>
       </c>
       <c r="P7">
-        <v>0.3666521031209191</v>
+        <v>0.3186823080190757</v>
       </c>
       <c r="Q7">
-        <v>10869.05681203672</v>
+        <v>10839.60987627574</v>
       </c>
       <c r="R7">
-        <v>97821.51130833046</v>
+        <v>97556.48888648166</v>
       </c>
       <c r="S7">
-        <v>0.03094787320434799</v>
+        <v>0.0383019725998942</v>
       </c>
       <c r="T7">
-        <v>0.03094787320434798</v>
+        <v>0.03830197259989421</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>247.152878</v>
       </c>
       <c r="I8">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="J8">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.922032</v>
+        <v>4.208541333333334</v>
       </c>
       <c r="N8">
-        <v>5.766096</v>
+        <v>12.625624</v>
       </c>
       <c r="O8">
-        <v>0.002297261960450741</v>
+        <v>0.005552616098231802</v>
       </c>
       <c r="P8">
-        <v>0.002297261960450741</v>
+        <v>0.005552616098231804</v>
       </c>
       <c r="Q8">
-        <v>158.3452468026987</v>
+        <v>346.7177009050969</v>
       </c>
       <c r="R8">
-        <v>1425.107221224288</v>
+        <v>3120.459308145872</v>
       </c>
       <c r="S8">
-        <v>0.0004508623614087843</v>
+        <v>0.001225133748496865</v>
       </c>
       <c r="T8">
-        <v>0.0004508623614087841</v>
+        <v>0.001225133748496865</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>247.152878</v>
       </c>
       <c r="I9">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="J9">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>77.911097</v>
       </c>
       <c r="O9">
-        <v>0.03104044737289977</v>
+        <v>0.0342644776553697</v>
       </c>
       <c r="P9">
-        <v>0.03104044737289976</v>
+        <v>0.0342644776553697</v>
       </c>
       <c r="Q9">
         <v>2139.550205743019</v>
@@ -1013,10 +1013,10 @@
         <v>19255.95185168716</v>
       </c>
       <c r="S9">
-        <v>0.006092021564221068</v>
+        <v>0.007560142319865762</v>
       </c>
       <c r="T9">
-        <v>0.006092021564221066</v>
+        <v>0.007560142319865763</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>247.152878</v>
       </c>
       <c r="I10">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="J10">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>251.8670403333333</v>
+        <v>226.733363</v>
       </c>
       <c r="N10">
-        <v>755.601121</v>
+        <v>680.200089</v>
       </c>
       <c r="O10">
-        <v>0.3010379488213928</v>
+        <v>0.299144815670109</v>
       </c>
       <c r="P10">
-        <v>0.3010379488213927</v>
+        <v>0.299144815670109</v>
       </c>
       <c r="Q10">
-        <v>20749.88796390847</v>
+        <v>18679.26773468957</v>
       </c>
       <c r="R10">
-        <v>186748.9916751763</v>
+        <v>168113.4096122061</v>
       </c>
       <c r="S10">
-        <v>0.05908193441406187</v>
+        <v>0.06600355632042197</v>
       </c>
       <c r="T10">
-        <v>0.05908193441406186</v>
+        <v>0.06600355632042197</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>247.152878</v>
       </c>
       <c r="I11">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="J11">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.535289333333334</v>
+        <v>3.547768333333333</v>
       </c>
       <c r="N11">
-        <v>16.605868</v>
+        <v>10.643305</v>
       </c>
       <c r="O11">
-        <v>0.006615919831488451</v>
+        <v>0.004680813136949986</v>
       </c>
       <c r="P11">
-        <v>0.006615919831488449</v>
+        <v>0.004680813136949986</v>
       </c>
       <c r="Q11">
-        <v>456.0208964320116</v>
+        <v>292.2803846868655</v>
       </c>
       <c r="R11">
-        <v>4104.188067888104</v>
+        <v>2630.52346218179</v>
       </c>
       <c r="S11">
-        <v>0.001298445405647524</v>
+        <v>0.001032778431469639</v>
       </c>
       <c r="T11">
-        <v>0.001298445405647523</v>
+        <v>0.001032778431469639</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>247.152878</v>
       </c>
       <c r="I12">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="J12">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>244.6034496666666</v>
+        <v>255.9368486666667</v>
       </c>
       <c r="N12">
-        <v>733.810349</v>
+        <v>767.810546</v>
       </c>
       <c r="O12">
-        <v>0.2923563188928492</v>
+        <v>0.3376749694202639</v>
       </c>
       <c r="P12">
-        <v>0.2923563188928492</v>
+        <v>0.3376749694202639</v>
       </c>
       <c r="Q12">
-        <v>20151.48218461494</v>
+        <v>21085.17624473905</v>
       </c>
       <c r="R12">
-        <v>181363.3396615344</v>
+        <v>189766.5862026514</v>
       </c>
       <c r="S12">
-        <v>0.05737807118999477</v>
+        <v>0.07450488089589906</v>
       </c>
       <c r="T12">
-        <v>0.05737807118999475</v>
+        <v>0.07450488089589907</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>247.152878</v>
       </c>
       <c r="I13">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="J13">
-        <v>0.1962607526571856</v>
+        <v>0.2206408162968446</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>306.7639160000001</v>
+        <v>241.54158</v>
       </c>
       <c r="N13">
-        <v>920.2917480000001</v>
+        <v>724.62474</v>
       </c>
       <c r="O13">
-        <v>0.3666521031209192</v>
+        <v>0.3186823080190756</v>
       </c>
       <c r="P13">
-        <v>0.3666521031209191</v>
+        <v>0.3186823080190757</v>
       </c>
       <c r="Q13">
-        <v>25272.52823531675</v>
+        <v>19899.23221788908</v>
       </c>
       <c r="R13">
-        <v>227452.7541178508</v>
+        <v>179093.0899610017</v>
       </c>
       <c r="S13">
-        <v>0.07195941772185163</v>
+        <v>0.0703143245806913</v>
       </c>
       <c r="T13">
-        <v>0.07195941772185162</v>
+        <v>0.07031432458069131</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="H14">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="I14">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="J14">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.922032</v>
+        <v>4.208541333333334</v>
       </c>
       <c r="N14">
-        <v>5.766096</v>
+        <v>12.625624</v>
       </c>
       <c r="O14">
-        <v>0.002297261960450741</v>
+        <v>0.005552616098231802</v>
       </c>
       <c r="P14">
-        <v>0.002297261960450741</v>
+        <v>0.005552616098231804</v>
       </c>
       <c r="Q14">
-        <v>182.5553656100907</v>
+        <v>317.8187628325502</v>
       </c>
       <c r="R14">
-        <v>1642.998290490816</v>
+        <v>2860.368865492952</v>
       </c>
       <c r="S14">
-        <v>0.0005197967409111183</v>
+        <v>0.001123018788008912</v>
       </c>
       <c r="T14">
-        <v>0.000519796740911118</v>
+        <v>0.001123018788008912</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="H15">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="I15">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="J15">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>77.911097</v>
       </c>
       <c r="O15">
-        <v>0.03104044737289977</v>
+        <v>0.0342644776553697</v>
       </c>
       <c r="P15">
-        <v>0.03104044737289976</v>
+        <v>0.0342644776553697</v>
       </c>
       <c r="Q15">
-        <v>2466.675684539112</v>
+        <v>1961.21858685692</v>
       </c>
       <c r="R15">
-        <v>22200.08116085201</v>
+        <v>17650.96728171228</v>
       </c>
       <c r="S15">
-        <v>0.007023458211831714</v>
+        <v>0.006930004071512407</v>
       </c>
       <c r="T15">
-        <v>0.007023458211831712</v>
+        <v>0.00693000407151241</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="H16">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="I16">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="J16">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>251.8670403333333</v>
+        <v>226.733363</v>
       </c>
       <c r="N16">
-        <v>755.601121</v>
+        <v>680.200089</v>
       </c>
       <c r="O16">
-        <v>0.3010379488213928</v>
+        <v>0.299144815670109</v>
       </c>
       <c r="P16">
-        <v>0.3010379488213927</v>
+        <v>0.299144815670109</v>
       </c>
       <c r="Q16">
-        <v>23922.43190185341</v>
+        <v>17122.34981530977</v>
       </c>
       <c r="R16">
-        <v>215301.8871166807</v>
+        <v>154101.1483377879</v>
       </c>
       <c r="S16">
-        <v>0.06811523778386408</v>
+        <v>0.06050215653122049</v>
       </c>
       <c r="T16">
-        <v>0.06811523778386405</v>
+        <v>0.06050215653122049</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="H17">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="I17">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="J17">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.535289333333334</v>
+        <v>3.547768333333333</v>
       </c>
       <c r="N17">
-        <v>16.605868</v>
+        <v>10.643305</v>
       </c>
       <c r="O17">
-        <v>0.006615919831488451</v>
+        <v>0.004680813136949986</v>
       </c>
       <c r="P17">
-        <v>0.006615919831488449</v>
+        <v>0.004680813136949986</v>
       </c>
       <c r="Q17">
-        <v>525.7439876153476</v>
+        <v>267.9187997004739</v>
       </c>
       <c r="R17">
-        <v>4731.695888538128</v>
+        <v>2411.269197304265</v>
       </c>
       <c r="S17">
-        <v>0.00149697057877639</v>
+        <v>0.0009466962964768469</v>
       </c>
       <c r="T17">
-        <v>0.00149697057877639</v>
+        <v>0.000946696296476847</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="H18">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="I18">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="J18">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>244.6034496666666</v>
+        <v>255.9368486666667</v>
       </c>
       <c r="N18">
-        <v>733.810349</v>
+        <v>767.810546</v>
       </c>
       <c r="O18">
-        <v>0.2923563188928492</v>
+        <v>0.3376749694202639</v>
       </c>
       <c r="P18">
-        <v>0.2923563188928492</v>
+        <v>0.3376749694202639</v>
       </c>
       <c r="Q18">
-        <v>23232.53316458193</v>
+        <v>19327.72572820994</v>
       </c>
       <c r="R18">
-        <v>209092.7984812374</v>
+        <v>173949.5315538895</v>
       </c>
       <c r="S18">
-        <v>0.06615086322826576</v>
+        <v>0.06829489526928578</v>
       </c>
       <c r="T18">
-        <v>0.06615086322826573</v>
+        <v>0.0682948952692858</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>94.98039866666666</v>
+        <v>75.51755766666666</v>
       </c>
       <c r="H19">
-        <v>284.941196</v>
+        <v>226.552673</v>
       </c>
       <c r="I19">
-        <v>0.2262679441264635</v>
+        <v>0.2022503929934091</v>
       </c>
       <c r="J19">
-        <v>0.2262679441264634</v>
+        <v>0.2022503929934092</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>306.7639160000001</v>
+        <v>241.54158</v>
       </c>
       <c r="N19">
-        <v>920.2917480000001</v>
+        <v>724.62474</v>
       </c>
       <c r="O19">
-        <v>0.3666521031209192</v>
+        <v>0.3186823080190756</v>
       </c>
       <c r="P19">
-        <v>0.3666521031209191</v>
+        <v>0.3186823080190757</v>
       </c>
       <c r="Q19">
-        <v>29136.55903822785</v>
+        <v>18240.63019654778</v>
       </c>
       <c r="R19">
-        <v>262229.0313440506</v>
+        <v>164165.67176893</v>
       </c>
       <c r="S19">
-        <v>0.08296161758281446</v>
+        <v>0.0644536220369047</v>
       </c>
       <c r="T19">
-        <v>0.08296161758281444</v>
+        <v>0.06445362203690472</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="H20">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="I20">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="J20">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.922032</v>
+        <v>4.208541333333334</v>
       </c>
       <c r="N20">
-        <v>5.766096</v>
+        <v>12.625624</v>
       </c>
       <c r="O20">
-        <v>0.002297261960450741</v>
+        <v>0.005552616098231802</v>
       </c>
       <c r="P20">
-        <v>0.002297261960450741</v>
+        <v>0.005552616098231804</v>
       </c>
       <c r="Q20">
-        <v>44.83500917948267</v>
+        <v>71.28741407868179</v>
       </c>
       <c r="R20">
-        <v>403.515082615344</v>
+        <v>641.5867267081361</v>
       </c>
       <c r="S20">
-        <v>0.0001276604035840346</v>
+        <v>0.0002518954659738277</v>
       </c>
       <c r="T20">
-        <v>0.0001276604035840345</v>
+        <v>0.0002518954659738277</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="H21">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="I21">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="J21">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>77.911097</v>
       </c>
       <c r="O21">
-        <v>0.03104044737289977</v>
+        <v>0.0342644776553697</v>
       </c>
       <c r="P21">
-        <v>0.03104044737289976</v>
+        <v>0.0342644776553697</v>
       </c>
       <c r="Q21">
-        <v>605.8075948056647</v>
+        <v>439.9054362115759</v>
       </c>
       <c r="R21">
-        <v>5452.268353250983</v>
+        <v>3959.148925904183</v>
       </c>
       <c r="S21">
-        <v>0.001724938691047611</v>
+        <v>0.001554414426039227</v>
       </c>
       <c r="T21">
-        <v>0.00172493869104761</v>
+        <v>0.001554414426039227</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="H22">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="I22">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="J22">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>251.8670403333333</v>
+        <v>226.733363</v>
       </c>
       <c r="N22">
-        <v>755.601121</v>
+        <v>680.200089</v>
       </c>
       <c r="O22">
-        <v>0.3010379488213928</v>
+        <v>0.299144815670109</v>
       </c>
       <c r="P22">
-        <v>0.3010379488213927</v>
+        <v>0.299144815670109</v>
       </c>
       <c r="Q22">
-        <v>5875.272141855146</v>
+        <v>3840.578921160586</v>
       </c>
       <c r="R22">
-        <v>52877.44927669632</v>
+        <v>34565.21029044528</v>
       </c>
       <c r="S22">
-        <v>0.01672888277534903</v>
+        <v>0.01357076041343335</v>
       </c>
       <c r="T22">
-        <v>0.01672888277534903</v>
+        <v>0.01357076041343335</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="H23">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="I23">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="J23">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.535289333333334</v>
+        <v>3.547768333333333</v>
       </c>
       <c r="N23">
-        <v>16.605868</v>
+        <v>10.643305</v>
       </c>
       <c r="O23">
-        <v>0.006615919831488451</v>
+        <v>0.004680813136949986</v>
       </c>
       <c r="P23">
-        <v>0.006615919831488449</v>
+        <v>0.004680813136949986</v>
       </c>
       <c r="Q23">
-        <v>129.1210281988502</v>
+        <v>60.09474784776612</v>
       </c>
       <c r="R23">
-        <v>1162.089253789652</v>
+        <v>540.8527306298951</v>
       </c>
       <c r="S23">
-        <v>0.0003676511474563041</v>
+        <v>0.0002123459618690189</v>
       </c>
       <c r="T23">
-        <v>0.0003676511474563039</v>
+        <v>0.0002123459618690189</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="H24">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="I24">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="J24">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>244.6034496666666</v>
+        <v>255.9368486666667</v>
       </c>
       <c r="N24">
-        <v>733.810349</v>
+        <v>767.810546</v>
       </c>
       <c r="O24">
-        <v>0.2923563188928492</v>
+        <v>0.3376749694202639</v>
       </c>
       <c r="P24">
-        <v>0.2923563188928492</v>
+        <v>0.3376749694202639</v>
       </c>
       <c r="Q24">
-        <v>5705.83523642589</v>
+        <v>4335.249356917388</v>
       </c>
       <c r="R24">
-        <v>51352.51712783301</v>
+        <v>39017.2442122565</v>
       </c>
       <c r="S24">
-        <v>0.0162464387182387</v>
+        <v>0.0153186880319174</v>
       </c>
       <c r="T24">
-        <v>0.01624643871823869</v>
+        <v>0.0153186880319174</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>23.32687966666667</v>
+        <v>16.93874633333333</v>
       </c>
       <c r="H25">
-        <v>69.980639</v>
+        <v>50.816239</v>
       </c>
       <c r="I25">
-        <v>0.05557067752037587</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="J25">
-        <v>0.05557067752037585</v>
+        <v>0.04536518670074136</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>306.7639160000001</v>
+        <v>241.54158</v>
       </c>
       <c r="N25">
-        <v>920.2917480000001</v>
+        <v>724.62474</v>
       </c>
       <c r="O25">
-        <v>0.3666521031209192</v>
+        <v>0.3186823080190756</v>
       </c>
       <c r="P25">
-        <v>0.3666521031209191</v>
+        <v>0.3186823080190757</v>
       </c>
       <c r="Q25">
-        <v>7155.844954607443</v>
+        <v>4091.41155257254</v>
       </c>
       <c r="R25">
-        <v>64402.60459146697</v>
+        <v>36822.70397315286</v>
       </c>
       <c r="S25">
-        <v>0.0203751057847002</v>
+        <v>0.01445708240150853</v>
       </c>
       <c r="T25">
-        <v>0.02037510578470019</v>
+        <v>0.01445708240150853</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="H26">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="I26">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="J26">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.922032</v>
+        <v>4.208541333333334</v>
       </c>
       <c r="N26">
-        <v>5.766096</v>
+        <v>12.625624</v>
       </c>
       <c r="O26">
-        <v>0.002297261960450741</v>
+        <v>0.005552616098231802</v>
       </c>
       <c r="P26">
-        <v>0.002297261960450741</v>
+        <v>0.005552616098231804</v>
       </c>
       <c r="Q26">
-        <v>129.2067073578027</v>
+        <v>374.3114875421973</v>
       </c>
       <c r="R26">
-        <v>1162.860366220224</v>
+        <v>3368.803387879776</v>
       </c>
       <c r="S26">
-        <v>0.0003678951049397703</v>
+        <v>0.001322636930969764</v>
       </c>
       <c r="T26">
-        <v>0.0003678951049397702</v>
+        <v>0.001322636930969764</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="H27">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="I27">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="J27">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>77.911097</v>
       </c>
       <c r="O27">
-        <v>0.03104044737289977</v>
+        <v>0.0342644776553697</v>
       </c>
       <c r="P27">
-        <v>0.03104044737289976</v>
+        <v>0.0342644776553697</v>
       </c>
       <c r="Q27">
-        <v>1745.832242474696</v>
+        <v>2309.827903485359</v>
       </c>
       <c r="R27">
-        <v>15712.49018227227</v>
+        <v>20788.45113136823</v>
       </c>
       <c r="S27">
-        <v>0.004970973637412145</v>
+        <v>0.008161821881007033</v>
       </c>
       <c r="T27">
-        <v>0.004970973637412143</v>
+        <v>0.008161821881007036</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="H28">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="I28">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="J28">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>251.8670403333333</v>
+        <v>226.733363</v>
       </c>
       <c r="N28">
-        <v>755.601121</v>
+        <v>680.200089</v>
       </c>
       <c r="O28">
-        <v>0.3010379488213928</v>
+        <v>0.299144815670109</v>
       </c>
       <c r="P28">
-        <v>0.3010379488213927</v>
+        <v>0.299144815670109</v>
       </c>
       <c r="Q28">
-        <v>16931.51361341792</v>
+        <v>20165.8711791136</v>
       </c>
       <c r="R28">
-        <v>152383.6225207613</v>
+        <v>181492.8406120224</v>
       </c>
       <c r="S28">
-        <v>0.04820973388283911</v>
+        <v>0.07125649854298846</v>
       </c>
       <c r="T28">
-        <v>0.04820973388283909</v>
+        <v>0.07125649854298846</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="H29">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="I29">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="J29">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.535289333333334</v>
+        <v>3.547768333333333</v>
       </c>
       <c r="N29">
-        <v>16.605868</v>
+        <v>10.643305</v>
       </c>
       <c r="O29">
-        <v>0.006615919831488451</v>
+        <v>0.004680813136949986</v>
       </c>
       <c r="P29">
-        <v>0.006615919831488449</v>
+        <v>0.004680813136949986</v>
       </c>
       <c r="Q29">
-        <v>372.1043713282436</v>
+        <v>315.5417369403133</v>
       </c>
       <c r="R29">
-        <v>3348.939341954192</v>
+        <v>2839.87563246282</v>
       </c>
       <c r="S29">
-        <v>0.001059506735662392</v>
+        <v>0.001114972872673473</v>
       </c>
       <c r="T29">
-        <v>0.001059506735662391</v>
+        <v>0.001114972872673473</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="H30">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="I30">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="J30">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>244.6034496666666</v>
+        <v>255.9368486666667</v>
       </c>
       <c r="N30">
-        <v>733.810349</v>
+        <v>767.810546</v>
       </c>
       <c r="O30">
-        <v>0.2923563188928492</v>
+        <v>0.3376749694202639</v>
       </c>
       <c r="P30">
-        <v>0.2923563188928492</v>
+        <v>0.3376749694202639</v>
       </c>
       <c r="Q30">
-        <v>16443.22588790926</v>
+        <v>22763.25571107192</v>
       </c>
       <c r="R30">
-        <v>147989.0329911833</v>
+        <v>204869.3013996473</v>
       </c>
       <c r="S30">
-        <v>0.04681941392429894</v>
+        <v>0.08043440737088785</v>
       </c>
       <c r="T30">
-        <v>0.04681941392429893</v>
+        <v>0.08043440737088786</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>67.22401466666666</v>
+        <v>88.94090799999999</v>
       </c>
       <c r="H31">
-        <v>201.672044</v>
+        <v>266.822724</v>
       </c>
       <c r="I31">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="J31">
-        <v>0.1601450384298299</v>
+        <v>0.2382006801066167</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>306.7639160000001</v>
+        <v>241.54158</v>
       </c>
       <c r="N31">
-        <v>920.2917480000001</v>
+        <v>724.62474</v>
       </c>
       <c r="O31">
-        <v>0.3666521031209192</v>
+        <v>0.3186823080190756</v>
       </c>
       <c r="P31">
-        <v>0.3666521031209191</v>
+        <v>0.3186823080190757</v>
       </c>
       <c r="Q31">
-        <v>20621.9019883881</v>
+        <v>21482.92744495464</v>
       </c>
       <c r="R31">
-        <v>185597.1178954929</v>
+        <v>193346.3470045917</v>
       </c>
       <c r="S31">
-        <v>0.05871751514467755</v>
+        <v>0.07591034250809012</v>
       </c>
       <c r="T31">
-        <v>0.05871751514467753</v>
+        <v>0.07591034250809013</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="H32">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="I32">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="J32">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.922032</v>
+        <v>4.208541333333334</v>
       </c>
       <c r="N32">
-        <v>5.766096</v>
+        <v>12.625624</v>
       </c>
       <c r="O32">
-        <v>0.002297261960450741</v>
+        <v>0.005552616098231802</v>
       </c>
       <c r="P32">
-        <v>0.002297261960450741</v>
+        <v>0.005552616098231804</v>
       </c>
       <c r="Q32">
-        <v>223.7680556214133</v>
+        <v>272.4111620418614</v>
       </c>
       <c r="R32">
-        <v>2013.91250059272</v>
+        <v>2451.700458376753</v>
       </c>
       <c r="S32">
-        <v>0.0006371431792394234</v>
+        <v>0.0009625701462991744</v>
       </c>
       <c r="T32">
-        <v>0.0006371431792394233</v>
+        <v>0.0009625701462991749</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="H33">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="I33">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="J33">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>77.911097</v>
       </c>
       <c r="O33">
-        <v>0.03104044737289977</v>
+        <v>0.0342644776553697</v>
       </c>
       <c r="P33">
-        <v>0.03104044737289976</v>
+        <v>0.0342644776553697</v>
       </c>
       <c r="Q33">
-        <v>3023.538749098407</v>
+        <v>1681.014139952701</v>
       </c>
       <c r="R33">
-        <v>27211.84874188566</v>
+        <v>15129.12725957431</v>
       </c>
       <c r="S33">
-        <v>0.008609035305796348</v>
+        <v>0.005939896201377386</v>
       </c>
       <c r="T33">
-        <v>0.008609035305796346</v>
+        <v>0.005939896201377388</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="H34">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="I34">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="J34">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>251.8670403333333</v>
+        <v>226.733363</v>
       </c>
       <c r="N34">
-        <v>755.601121</v>
+        <v>680.200089</v>
       </c>
       <c r="O34">
-        <v>0.3010379488213928</v>
+        <v>0.299144815670109</v>
       </c>
       <c r="P34">
-        <v>0.3010379488213927</v>
+        <v>0.299144815670109</v>
       </c>
       <c r="Q34">
-        <v>29323.02786348515</v>
+        <v>14676.03475800226</v>
       </c>
       <c r="R34">
-        <v>263907.2507713663</v>
+        <v>132084.3128220204</v>
       </c>
       <c r="S34">
-        <v>0.08349255726418919</v>
+        <v>0.05185805463408712</v>
       </c>
       <c r="T34">
-        <v>0.08349255726418918</v>
+        <v>0.05185805463408712</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="H35">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="I35">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="J35">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.535289333333334</v>
+        <v>3.547768333333333</v>
       </c>
       <c r="N35">
-        <v>16.605868</v>
+        <v>10.643305</v>
       </c>
       <c r="O35">
-        <v>0.006615919831488451</v>
+        <v>0.004680813136949986</v>
       </c>
       <c r="P35">
-        <v>0.006615919831488449</v>
+        <v>0.004680813136949986</v>
       </c>
       <c r="Q35">
-        <v>644.4330434779177</v>
+        <v>229.6405376095433</v>
       </c>
       <c r="R35">
-        <v>5799.89739130126</v>
+        <v>2066.76483848589</v>
       </c>
       <c r="S35">
-        <v>0.001834918380053021</v>
+        <v>0.0008114393119070182</v>
       </c>
       <c r="T35">
-        <v>0.001834918380053021</v>
+        <v>0.0008114393119070183</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="H36">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="I36">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="J36">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>244.6034496666666</v>
+        <v>255.9368486666667</v>
       </c>
       <c r="N36">
-        <v>733.810349</v>
+        <v>767.810546</v>
       </c>
       <c r="O36">
-        <v>0.2923563188928492</v>
+        <v>0.3376749694202639</v>
       </c>
       <c r="P36">
-        <v>0.2923563188928492</v>
+        <v>0.3376749694202639</v>
       </c>
       <c r="Q36">
-        <v>28477.38140166253</v>
+        <v>16566.32282601288</v>
       </c>
       <c r="R36">
-        <v>256296.4326149627</v>
+        <v>149096.9054341159</v>
       </c>
       <c r="S36">
-        <v>0.0810847163697328</v>
+        <v>0.05853742433587988</v>
       </c>
       <c r="T36">
-        <v>0.08108471636973279</v>
+        <v>0.05853742433587989</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>116.4226483333333</v>
+        <v>64.728166</v>
       </c>
       <c r="H37">
-        <v>349.2679449999999</v>
+        <v>194.184498</v>
       </c>
       <c r="I37">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="J37">
-        <v>0.2773489441815381</v>
+        <v>0.1733543485215373</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>306.7639160000001</v>
+        <v>241.54158</v>
       </c>
       <c r="N37">
-        <v>920.2917480000001</v>
+        <v>724.62474</v>
       </c>
       <c r="O37">
-        <v>0.3666521031209192</v>
+        <v>0.3186823080190756</v>
       </c>
       <c r="P37">
-        <v>0.3666521031209191</v>
+        <v>0.3186823080190757</v>
       </c>
       <c r="Q37">
-        <v>35714.2675138242</v>
+        <v>15634.54348614228</v>
       </c>
       <c r="R37">
-        <v>321428.4076244179</v>
+        <v>140710.8913752805</v>
       </c>
       <c r="S37">
-        <v>0.1016905736825274</v>
+        <v>0.05524496389198674</v>
       </c>
       <c r="T37">
-        <v>0.1016905736825273</v>
+        <v>0.05524496389198675</v>
       </c>
     </row>
   </sheetData>
